--- a/docs/resources/tables/cost-analysis-2023-02-09.xlsx
+++ b/docs/resources/tables/cost-analysis-2023-02-09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahrim\Desktop\Projects\pm-project\docs\resources\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64D2079-F2F5-4DF2-BA55-85B16449BAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D225468A-69DD-4346-B230-E13DD00F0C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Analysis" sheetId="1" r:id="rId1"/>
@@ -1595,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
